--- a/bd/M_Kolomenskaya21_3_12_142_W.xlsx
+++ b/bd/M_Kolomenskaya21_3_12_142_W.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1750062028" val="1062" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1750062028" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1750062028" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1750062028"/>
+      <pm:revision xmlns:pm="smNativeData" day="1750987136" val="1062" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1750987136" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1750987136" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1750987136"/>
     </ext>
   </extLst>
 </workbook>
@@ -43,7 +43,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1750062028" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1750987136" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -76,7 +76,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1750062028"/>
+          <pm:border xmlns:pm="smNativeData" id="1750987136"/>
         </ext>
       </extLst>
     </border>
@@ -93,7 +93,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1750062028" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1750987136" count="1">
         <pm:charStyle name="Обычный" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -368,7 +368,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1750062028" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1750987136" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -377,16 +377,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1750062028" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1750062028" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1750062028" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1750062028" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1750987136" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1750987136" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1750987136" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1750987136" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1750062028" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1750987136" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/bd/M_Kolomenskaya21_3_12_142_W.xlsx
+++ b/bd/M_Kolomenskaya21_3_12_142_W.xlsx
@@ -1,39 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="Kira"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId3"/>
+    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr/>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1750987136" val="1062" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1750987136" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1750987136" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1750987136"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Arial"/>
@@ -41,20 +23,11 @@
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1750987136" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,42 +35,98 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none">
+      <left>
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
+      <right>
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
+      <top>
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom>
         <color rgb="FF000000"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1750987136"/>
-        </ext>
-      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0"/>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1750987136" count="1">
-        <pm:charStyle name="Обычный" fontId="0"/>
-      </pm:charStyles>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -356,41 +385,1113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
-  <sheetData/>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1750987136" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1750987136" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1750987136" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1750987136" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1750987136" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1750987136" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10" defaultRowHeight="13.45"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>589.875</v>
+      </c>
+      <c r="B1" t="n">
+        <v>787.875</v>
+      </c>
+      <c r="C1" t="n">
+        <v>83</v>
+      </c>
+      <c r="D1" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="E1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.9841817316841104</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>358.125</v>
+      </c>
+      <c r="B2" t="n">
+        <v>535.125</v>
+      </c>
+      <c r="C2" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.875</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9799248964046144</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>297.875</v>
+      </c>
+      <c r="B3" t="n">
+        <v>530.75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>42.125</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.625</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9760693846984476</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1830.25</v>
+      </c>
+      <c r="B4" t="n">
+        <v>588.125</v>
+      </c>
+      <c r="C4" t="n">
+        <v>28.375</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9358464967535614</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1782.875</v>
+      </c>
+      <c r="B5" t="n">
+        <v>582.125</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32.625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9667749188108918</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>241.875</v>
+      </c>
+      <c r="B6" t="n">
+        <v>526.875</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53.875</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.974008129615847</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1726</v>
+      </c>
+      <c r="B7" t="n">
+        <v>534.625</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27.875</v>
+      </c>
+      <c r="D7" t="n">
+        <v>46.875</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9342646990794282</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1597</v>
+      </c>
+      <c r="B8" t="n">
+        <v>570</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>58</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>48</v>
+      </c>
+      <c r="B9" t="n">
+        <v>590</v>
+      </c>
+      <c r="C9" t="n">
+        <v>37</v>
+      </c>
+      <c r="D9" t="n">
+        <v>43</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1470.875</v>
+      </c>
+      <c r="B10" t="n">
+        <v>510.875</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30.875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60.625</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9562689833110161</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1256.125</v>
+      </c>
+      <c r="B11" t="n">
+        <v>494.375</v>
+      </c>
+      <c r="C11" t="n">
+        <v>35.375</v>
+      </c>
+      <c r="D11" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9375196726471514</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1734.875</v>
+      </c>
+      <c r="B12" t="n">
+        <v>585.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>29</v>
+      </c>
+      <c r="D12" t="n">
+        <v>44.375</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8772313296903461</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1541.875</v>
+      </c>
+      <c r="B13" t="n">
+        <v>518.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31.625</v>
+      </c>
+      <c r="D13" t="n">
+        <v>53</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9523878858474083</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>550.25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>500.375</v>
+      </c>
+      <c r="C14" t="n">
+        <v>57.125</v>
+      </c>
+      <c r="D14" t="n">
+        <v>52.25</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.035192120939877</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1877.375</v>
+      </c>
+      <c r="B15" t="n">
+        <v>591.25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>37.375</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9325657894736842</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1327.625</v>
+      </c>
+      <c r="B16" t="n">
+        <v>499.625</v>
+      </c>
+      <c r="C16" t="n">
+        <v>33.125</v>
+      </c>
+      <c r="D16" t="n">
+        <v>66.625</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9453243354909792</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1718</v>
+      </c>
+      <c r="B17" t="n">
+        <v>674</v>
+      </c>
+      <c r="C17" t="n">
+        <v>41</v>
+      </c>
+      <c r="D17" t="n">
+        <v>63</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1162.875</v>
+      </c>
+      <c r="B18" t="n">
+        <v>487</v>
+      </c>
+      <c r="C18" t="n">
+        <v>36.375</v>
+      </c>
+      <c r="D18" t="n">
+        <v>66.125</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9626928471248247</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1778.125</v>
+      </c>
+      <c r="B19" t="n">
+        <v>538</v>
+      </c>
+      <c r="C19" t="n">
+        <v>29</v>
+      </c>
+      <c r="D19" t="n">
+        <v>47.375</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9336734693877551</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1403.625</v>
+      </c>
+      <c r="B20" t="n">
+        <v>508.625</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31.875</v>
+      </c>
+      <c r="D20" t="n">
+        <v>58.625</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9194029850746268</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>660.875</v>
+      </c>
+      <c r="B21" t="n">
+        <v>505.25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="D21" t="n">
+        <v>47.125</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9686673165297313</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1670.625</v>
+      </c>
+      <c r="B22" t="n">
+        <v>528.125</v>
+      </c>
+      <c r="C22" t="n">
+        <v>30.625</v>
+      </c>
+      <c r="D22" t="n">
+        <v>52.625</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9441010177157935</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>515</v>
+      </c>
+      <c r="B23" t="n">
+        <v>500.125</v>
+      </c>
+      <c r="C23" t="n">
+        <v>48.875</v>
+      </c>
+      <c r="D23" t="n">
+        <v>44.125</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9562074829931972</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1773</v>
+      </c>
+      <c r="B24" t="n">
+        <v>653</v>
+      </c>
+      <c r="C24" t="n">
+        <v>34</v>
+      </c>
+      <c r="D24" t="n">
+        <v>52</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>419.25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>488.75</v>
+      </c>
+      <c r="C25" t="n">
+        <v>52.75</v>
+      </c>
+      <c r="D25" t="n">
+        <v>43</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8668450298415312</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>336.375</v>
+      </c>
+      <c r="B26" t="n">
+        <v>490.625</v>
+      </c>
+      <c r="C26" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.046896099133663</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>117</v>
+      </c>
+      <c r="B27" t="n">
+        <v>518.75</v>
+      </c>
+      <c r="C27" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>39</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9836065573770492</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>485.625</v>
+      </c>
+      <c r="B28" t="n">
+        <v>497.875</v>
+      </c>
+      <c r="C28" t="n">
+        <v>46.125</v>
+      </c>
+      <c r="D28" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9717103295047619</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1629</v>
+      </c>
+      <c r="B29" t="n">
+        <v>539</v>
+      </c>
+      <c r="C29" t="n">
+        <v>26</v>
+      </c>
+      <c r="D29" t="n">
+        <v>48</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.05089058524173028</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B30" t="n">
+        <v>475</v>
+      </c>
+      <c r="C30" t="n">
+        <v>41</v>
+      </c>
+      <c r="D30" t="n">
+        <v>75</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>952</v>
+      </c>
+      <c r="B31" t="n">
+        <v>475</v>
+      </c>
+      <c r="C31" t="n">
+        <v>37</v>
+      </c>
+      <c r="D31" t="n">
+        <v>73</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>770</v>
+      </c>
+      <c r="B32" t="n">
+        <v>473</v>
+      </c>
+      <c r="C32" t="n">
+        <v>40</v>
+      </c>
+      <c r="D32" t="n">
+        <v>39</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>456</v>
+      </c>
+      <c r="B33" t="n">
+        <v>492.5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>39</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1944086716785323</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1843</v>
+      </c>
+      <c r="B34" t="n">
+        <v>540</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>46</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>815</v>
+      </c>
+      <c r="B35" t="n">
+        <v>464</v>
+      </c>
+      <c r="C35" t="n">
+        <v>44</v>
+      </c>
+      <c r="D35" t="n">
+        <v>42</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>367.75</v>
+      </c>
+      <c r="B36" t="n">
+        <v>489.25</v>
+      </c>
+      <c r="C36" t="n">
+        <v>47</v>
+      </c>
+      <c r="D36" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8726721524469467</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1712</v>
+      </c>
+      <c r="B37" t="n">
+        <v>778</v>
+      </c>
+      <c r="C37" t="n">
+        <v>45</v>
+      </c>
+      <c r="D37" t="n">
+        <v>62</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1186</v>
+      </c>
+      <c r="B38" t="n">
+        <v>782</v>
+      </c>
+      <c r="C38" t="n">
+        <v>52</v>
+      </c>
+      <c r="D38" t="n">
+        <v>100</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1601</v>
+      </c>
+      <c r="B39" t="n">
+        <v>741</v>
+      </c>
+      <c r="C39" t="n">
+        <v>45</v>
+      </c>
+      <c r="D39" t="n">
+        <v>70</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1462</v>
+      </c>
+      <c r="B40" t="n">
+        <v>787</v>
+      </c>
+      <c r="C40" t="n">
+        <v>51</v>
+      </c>
+      <c r="D40" t="n">
+        <v>90</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1321</v>
+      </c>
+      <c r="B41" t="n">
+        <v>736</v>
+      </c>
+      <c r="C41" t="n">
+        <v>54</v>
+      </c>
+      <c r="D41" t="n">
+        <v>92</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>441</v>
+      </c>
+      <c r="B42" t="n">
+        <v>426</v>
+      </c>
+      <c r="C42" t="n">
+        <v>42</v>
+      </c>
+      <c r="D42" t="n">
+        <v>55</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
+  <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>
 </worksheet>
 </file>
--- a/bd/M_Kolomenskaya21_3_12_142_W.xlsx
+++ b/bd/M_Kolomenskaya21_3_12_142_W.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -412,16 +412,16 @@
         <v>50.25</v>
       </c>
       <c r="E1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" t="n">
         <v>3</v>
       </c>
       <c r="G1" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9841817316841104</v>
+        <v>0.007775499063104003</v>
       </c>
     </row>
     <row r="2">
@@ -438,16 +438,16 @@
         <v>56.875</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9799248964046144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -464,16 +464,16 @@
         <v>56.625</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9760693846984476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -490,16 +490,16 @@
         <v>44</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9358464967535614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>45.25</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9667749188108918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -542,16 +542,16 @@
         <v>53.875</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.974008129615847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -568,39 +568,39 @@
         <v>46.875</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9342646990794282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1597</v>
+        <v>1470.875</v>
       </c>
       <c r="B8" t="n">
-        <v>570</v>
+        <v>510.875</v>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>30.875</v>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>60.625</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -608,25 +608,25 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>48</v>
+        <v>1256.125</v>
       </c>
       <c r="B9" t="n">
-        <v>590</v>
+        <v>494.375</v>
       </c>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>35.375</v>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>65.25</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -634,207 +634,207 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1470.875</v>
+        <v>1734.875</v>
       </c>
       <c r="B10" t="n">
-        <v>510.875</v>
+        <v>585.5</v>
       </c>
       <c r="C10" t="n">
-        <v>30.875</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>60.625</v>
+        <v>44.375</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9562689833110161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1256.125</v>
+        <v>1541.875</v>
       </c>
       <c r="B11" t="n">
-        <v>494.375</v>
+        <v>518.5</v>
       </c>
       <c r="C11" t="n">
-        <v>35.375</v>
+        <v>31.625</v>
       </c>
       <c r="D11" t="n">
-        <v>65.25</v>
+        <v>53</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9375196726471514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1734.875</v>
+        <v>550.25</v>
       </c>
       <c r="B12" t="n">
-        <v>585.5</v>
+        <v>500.375</v>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>57.125</v>
       </c>
       <c r="D12" t="n">
-        <v>44.375</v>
+        <v>52.25</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8772313296903461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1541.875</v>
+        <v>1877.375</v>
       </c>
       <c r="B13" t="n">
-        <v>518.5</v>
+        <v>591.25</v>
       </c>
       <c r="C13" t="n">
-        <v>31.625</v>
+        <v>27.5</v>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>37.375</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9523878858474083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>550.25</v>
+        <v>1327.625</v>
       </c>
       <c r="B14" t="n">
-        <v>500.375</v>
+        <v>499.625</v>
       </c>
       <c r="C14" t="n">
-        <v>57.125</v>
+        <v>33.125</v>
       </c>
       <c r="D14" t="n">
-        <v>52.25</v>
+        <v>66.625</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
-        <v>1.035192120939877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1877.375</v>
+        <v>1718</v>
       </c>
       <c r="B15" t="n">
-        <v>591.25</v>
+        <v>674</v>
       </c>
       <c r="C15" t="n">
-        <v>27.5</v>
+        <v>41</v>
       </c>
       <c r="D15" t="n">
-        <v>37.375</v>
+        <v>63</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>3</v>
       </c>
-      <c r="G15" t="n">
-        <v>8</v>
-      </c>
       <c r="H15" t="n">
-        <v>0.9325657894736842</v>
+        <v>0.1138581652569941</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1327.625</v>
+        <v>1162.875</v>
       </c>
       <c r="B16" t="n">
-        <v>499.625</v>
+        <v>487</v>
       </c>
       <c r="C16" t="n">
-        <v>33.125</v>
+        <v>36.375</v>
       </c>
       <c r="D16" t="n">
-        <v>66.625</v>
+        <v>66.125</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9453243354909792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1718</v>
+        <v>1778.125</v>
       </c>
       <c r="B17" t="n">
-        <v>674</v>
+        <v>538</v>
       </c>
       <c r="C17" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>63</v>
+        <v>47.375</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -842,181 +842,181 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1162.875</v>
+        <v>1403.625</v>
       </c>
       <c r="B18" t="n">
-        <v>487</v>
+        <v>508.625</v>
       </c>
       <c r="C18" t="n">
-        <v>36.375</v>
+        <v>31.875</v>
       </c>
       <c r="D18" t="n">
-        <v>66.125</v>
+        <v>58.625</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9626928471248247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1778.125</v>
+        <v>660.875</v>
       </c>
       <c r="B19" t="n">
-        <v>538</v>
+        <v>505.25</v>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>56.25</v>
       </c>
       <c r="D19" t="n">
-        <v>47.375</v>
+        <v>47.125</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9336734693877551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1403.625</v>
+        <v>1670.625</v>
       </c>
       <c r="B20" t="n">
-        <v>508.625</v>
+        <v>528.125</v>
       </c>
       <c r="C20" t="n">
-        <v>31.875</v>
+        <v>30.625</v>
       </c>
       <c r="D20" t="n">
-        <v>58.625</v>
+        <v>52.625</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9194029850746268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>660.875</v>
+        <v>515</v>
       </c>
       <c r="B21" t="n">
-        <v>505.25</v>
+        <v>500.125</v>
       </c>
       <c r="C21" t="n">
-        <v>56.25</v>
+        <v>48.875</v>
       </c>
       <c r="D21" t="n">
-        <v>47.125</v>
+        <v>44.125</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9686673165297313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1670.625</v>
+        <v>419.25</v>
       </c>
       <c r="B22" t="n">
-        <v>528.125</v>
+        <v>488.75</v>
       </c>
       <c r="C22" t="n">
-        <v>30.625</v>
+        <v>52.75</v>
       </c>
       <c r="D22" t="n">
-        <v>52.625</v>
+        <v>43</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9441010177157935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>515</v>
+        <v>336.375</v>
       </c>
       <c r="B23" t="n">
-        <v>500.125</v>
+        <v>490.625</v>
       </c>
       <c r="C23" t="n">
-        <v>48.875</v>
+        <v>43.5</v>
       </c>
       <c r="D23" t="n">
-        <v>44.125</v>
+        <v>37.75</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9562074829931972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1773</v>
+        <v>485.625</v>
       </c>
       <c r="B24" t="n">
-        <v>653</v>
+        <v>497.875</v>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>46.125</v>
       </c>
       <c r="D24" t="n">
-        <v>52</v>
+        <v>33.5</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1024,389 +1024,389 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>419.25</v>
+        <v>456</v>
       </c>
       <c r="B25" t="n">
-        <v>488.75</v>
+        <v>492.5</v>
       </c>
       <c r="C25" t="n">
-        <v>52.75</v>
+        <v>48.5</v>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8668450298415312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>336.375</v>
+        <v>367.75</v>
       </c>
       <c r="B26" t="n">
-        <v>490.625</v>
+        <v>489.25</v>
       </c>
       <c r="C26" t="n">
-        <v>43.5</v>
+        <v>47</v>
       </c>
       <c r="D26" t="n">
-        <v>37.75</v>
+        <v>34.5</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.046896099133663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>117</v>
+        <v>1022.148010253906</v>
       </c>
       <c r="B27" t="n">
-        <v>518.75</v>
+        <v>677.797119140625</v>
       </c>
       <c r="C27" t="n">
-        <v>30.25</v>
+        <v>41.140380859375</v>
       </c>
       <c r="D27" t="n">
-        <v>39</v>
+        <v>86.10198974609375</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9836065573770492</v>
+        <v>0.9781467391506028</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>485.625</v>
+        <v>338.21923828125</v>
       </c>
       <c r="B28" t="n">
-        <v>497.875</v>
+        <v>770.0433959960938</v>
       </c>
       <c r="C28" t="n">
-        <v>46.125</v>
+        <v>54.24176025390625</v>
       </c>
       <c r="D28" t="n">
-        <v>33.5</v>
+        <v>75.6259765625</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9717103295047619</v>
+        <v>1.004524092471675</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1629</v>
+        <v>2140.291015625</v>
       </c>
       <c r="B29" t="n">
-        <v>539</v>
+        <v>677.0703125</v>
       </c>
       <c r="C29" t="n">
-        <v>26</v>
+        <v>33.0546875</v>
       </c>
       <c r="D29" t="n">
-        <v>48</v>
+        <v>44.25390625</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>11.5</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05089058524173028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1047</v>
+        <v>339.14013671875</v>
       </c>
       <c r="B30" t="n">
-        <v>475</v>
+        <v>1024.733947753906</v>
       </c>
       <c r="C30" t="n">
-        <v>41</v>
+        <v>97.93695068359375</v>
       </c>
       <c r="D30" t="n">
-        <v>75</v>
+        <v>57.810546875</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.9575229476822931</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>952</v>
+        <v>1236.7685546875</v>
       </c>
       <c r="B31" t="n">
-        <v>475</v>
+        <v>675.75146484375</v>
       </c>
       <c r="C31" t="n">
-        <v>37</v>
+        <v>41.2041015625</v>
       </c>
       <c r="D31" t="n">
-        <v>73</v>
+        <v>81.54833984375</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>14.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.9727380822241489</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>770</v>
+        <v>259.44140625</v>
       </c>
       <c r="B32" t="n">
-        <v>473</v>
+        <v>766.371826171875</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>51.39617919921875</v>
       </c>
       <c r="D32" t="n">
-        <v>39</v>
+        <v>68.72998046875</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.9469288331350582</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>456</v>
+        <v>2110.601623535156</v>
       </c>
       <c r="B33" t="n">
-        <v>492.5</v>
+        <v>726.7733764648438</v>
       </c>
       <c r="C33" t="n">
-        <v>48.5</v>
+        <v>36.49993896484375</v>
       </c>
       <c r="D33" t="n">
-        <v>39</v>
+        <v>50.650390625</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1944086716785323</v>
+        <v>0.9483054246992535</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1843</v>
+        <v>1132.10546875</v>
       </c>
       <c r="B34" t="n">
-        <v>540</v>
+        <v>677.8994140625</v>
       </c>
       <c r="C34" t="n">
-        <v>32</v>
+        <v>42.283203125</v>
       </c>
       <c r="D34" t="n">
-        <v>46</v>
+        <v>86.64453125</v>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.839449544550843</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>815</v>
+        <v>2049.766479492188</v>
       </c>
       <c r="B35" t="n">
-        <v>464</v>
+        <v>736.613037109375</v>
       </c>
       <c r="C35" t="n">
-        <v>44</v>
+        <v>35.970947265625</v>
       </c>
       <c r="D35" t="n">
-        <v>42</v>
+        <v>56.3543701171875</v>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>17.5</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.9242767056252454</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>367.75</v>
+        <v>1485.08740234375</v>
       </c>
       <c r="B36" t="n">
-        <v>489.25</v>
+        <v>675.1435546875</v>
       </c>
       <c r="C36" t="n">
-        <v>47</v>
+        <v>48.4248046875</v>
       </c>
       <c r="D36" t="n">
-        <v>34.5</v>
+        <v>88.14453125</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8726721524469467</v>
+        <v>0.9305349344774495</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1712</v>
+        <v>1669.549682617188</v>
       </c>
       <c r="B37" t="n">
-        <v>778</v>
+        <v>676.9503173828125</v>
       </c>
       <c r="C37" t="n">
-        <v>45</v>
+        <v>40.5731201171875</v>
       </c>
       <c r="D37" t="n">
-        <v>62</v>
+        <v>73.1688232421875</v>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G37" t="n">
-        <v>4.5</v>
+        <v>17.5</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.9530910009070335</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1186</v>
+        <v>1841.34130859375</v>
       </c>
       <c r="B38" t="n">
-        <v>782</v>
+        <v>679.10400390625</v>
       </c>
       <c r="C38" t="n">
-        <v>52</v>
+        <v>38.455078125</v>
       </c>
       <c r="D38" t="n">
-        <v>100</v>
+        <v>65.80419921875</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>4.5</v>
+        <v>14.5</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.7833844487210888</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1601</v>
+        <v>2090.6640625</v>
       </c>
       <c r="B39" t="n">
-        <v>741</v>
+        <v>678.875</v>
       </c>
       <c r="C39" t="n">
-        <v>45</v>
+        <v>32.1875</v>
       </c>
       <c r="D39" t="n">
-        <v>70</v>
+        <v>49.630859375</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G39" t="n">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1414,80 +1414,1094 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1462</v>
+        <v>914.9208374023438</v>
       </c>
       <c r="B40" t="n">
-        <v>787</v>
+        <v>673.4922485351562</v>
       </c>
       <c r="C40" t="n">
-        <v>51</v>
+        <v>41.13616943359375</v>
       </c>
       <c r="D40" t="n">
-        <v>90</v>
+        <v>84.55572509765625</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G40" t="n">
-        <v>4.5</v>
+        <v>19</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.9448941744459343</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1321</v>
+        <v>1587.128662109375</v>
       </c>
       <c r="B41" t="n">
-        <v>736</v>
+        <v>680.39453125</v>
       </c>
       <c r="C41" t="n">
-        <v>54</v>
+        <v>40.85546875</v>
       </c>
       <c r="D41" t="n">
-        <v>92</v>
+        <v>73.081787109375</v>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G41" t="n">
-        <v>4.5</v>
+        <v>16</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.9601329200718813</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>441</v>
+        <v>2163.206726074219</v>
       </c>
       <c r="B42" t="n">
-        <v>426</v>
+        <v>728.7342529296875</v>
       </c>
       <c r="C42" t="n">
-        <v>42</v>
+        <v>32.3106689453125</v>
       </c>
       <c r="D42" t="n">
-        <v>55</v>
+        <v>49.7791748046875</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.9724518640790678</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1382.359375</v>
+      </c>
+      <c r="B43" t="n">
+        <v>680.00048828125</v>
+      </c>
+      <c r="C43" t="n">
+        <v>40.15576171875</v>
+      </c>
+      <c r="D43" t="n">
+        <v>76.32080078125</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>11</v>
+      </c>
+      <c r="G43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8882848016399646</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1834.312133789062</v>
+      </c>
+      <c r="B44" t="n">
+        <v>736.6649169921875</v>
+      </c>
+      <c r="C44" t="n">
+        <v>41.1741943359375</v>
+      </c>
+      <c r="D44" t="n">
+        <v>73.6082763671875</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>13</v>
+      </c>
+      <c r="G44" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9505051244985183</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>698.6002197265625</v>
+      </c>
+      <c r="B45" t="n">
+        <v>727.0428466796875</v>
+      </c>
+      <c r="C45" t="n">
+        <v>68.971923828125</v>
+      </c>
+      <c r="D45" t="n">
+        <v>67.41278076171875</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>14</v>
+      </c>
+      <c r="G45" t="n">
+        <v>19</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9861940371490866</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2188.578491210938</v>
+      </c>
+      <c r="B46" t="n">
+        <v>676.278076171875</v>
+      </c>
+      <c r="C46" t="n">
+        <v>32.990478515625</v>
+      </c>
+      <c r="D46" t="n">
+        <v>47.7581787109375</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>13</v>
+      </c>
+      <c r="G46" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9122713653920088</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>188.8388671875</v>
+      </c>
+      <c r="B47" t="n">
+        <v>995.5404052734375</v>
+      </c>
+      <c r="C47" t="n">
+        <v>82.37457275390625</v>
+      </c>
+      <c r="D47" t="n">
+        <v>45.28533935546875</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>14</v>
+      </c>
+      <c r="G47" t="n">
+        <v>19</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.005881332998822</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>570.4761962890625</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1061.851318359375</v>
+      </c>
+      <c r="C48" t="n">
+        <v>106.365478515625</v>
+      </c>
+      <c r="D48" t="n">
+        <v>66.715576171875</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13</v>
+      </c>
+      <c r="G48" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9720728549549413</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1916.886474609375</v>
+      </c>
+      <c r="B49" t="n">
+        <v>683.37060546875</v>
+      </c>
+      <c r="C49" t="n">
+        <v>32.1109619140625</v>
+      </c>
+      <c r="D49" t="n">
+        <v>56.7938232421875</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>13</v>
+      </c>
+      <c r="G49" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9060885016843693</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>650.02734375</v>
+      </c>
+      <c r="B50" t="n">
+        <v>646.6444091796875</v>
+      </c>
+      <c r="C50" t="n">
+        <v>51.02349853515625</v>
+      </c>
+      <c r="D50" t="n">
+        <v>83.47930908203125</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>14</v>
+      </c>
+      <c r="G50" t="n">
+        <v>19</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9492232309824062</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>408.9334716796875</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1045.474792480469</v>
+      </c>
+      <c r="C51" t="n">
+        <v>77.999267578125</v>
+      </c>
+      <c r="D51" t="n">
+        <v>48.25592041015625</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>14</v>
+      </c>
+      <c r="G51" t="n">
+        <v>19</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9644176937164821</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>139.9696044921875</v>
+      </c>
+      <c r="B52" t="n">
+        <v>757.75634765625</v>
+      </c>
+      <c r="C52" t="n">
+        <v>46.28564453125</v>
+      </c>
+      <c r="D52" t="n">
+        <v>55.64056396484375</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>14</v>
+      </c>
+      <c r="G52" t="n">
+        <v>19</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9850869501213314</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2213.134643554688</v>
+      </c>
+      <c r="B53" t="n">
+        <v>726.0067749023438</v>
+      </c>
+      <c r="C53" t="n">
+        <v>31.01715087890625</v>
+      </c>
+      <c r="D53" t="n">
+        <v>48.3125</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>14</v>
+      </c>
+      <c r="G53" t="n">
+        <v>19</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9742877196690272</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>231.251953125</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1005.516235351562</v>
+      </c>
+      <c r="C54" t="n">
+        <v>87.98663330078125</v>
+      </c>
+      <c r="D54" t="n">
+        <v>49.76995849609375</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>14</v>
+      </c>
+      <c r="G54" t="n">
+        <v>19</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.991477992957295</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>489.9854125976562</v>
+      </c>
+      <c r="B55" t="n">
+        <v>725.887939453125</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53.99468994140625</v>
+      </c>
+      <c r="D55" t="n">
+        <v>49.20245361328125</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>14</v>
+      </c>
+      <c r="G55" t="n">
+        <v>19</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.027658705870542</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>612.6952514648438</v>
+      </c>
+      <c r="B56" t="n">
+        <v>729.898193359375</v>
+      </c>
+      <c r="C56" t="n">
+        <v>60.100341796875</v>
+      </c>
+      <c r="D56" t="n">
+        <v>54.88250732421875</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>14</v>
+      </c>
+      <c r="G56" t="n">
+        <v>19</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.033821086912835</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>284.9064331054688</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1021.807189941406</v>
+      </c>
+      <c r="C57" t="n">
+        <v>85.12701416015625</v>
+      </c>
+      <c r="D57" t="n">
+        <v>49.7403564453125</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>14</v>
+      </c>
+      <c r="G57" t="n">
+        <v>19</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.9763136988954014</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>148.5004272460938</v>
+      </c>
+      <c r="B58" t="n">
+        <v>987.2100219726562</v>
+      </c>
+      <c r="C58" t="n">
+        <v>78.9111328125</v>
+      </c>
+      <c r="D58" t="n">
+        <v>45.4892578125</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>14</v>
+      </c>
+      <c r="G58" t="n">
+        <v>19</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9697702657133889</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35.129638671875</v>
+      </c>
+      <c r="B59" t="n">
+        <v>744.68408203125</v>
+      </c>
+      <c r="C59" t="n">
+        <v>37.6328125</v>
+      </c>
+      <c r="D59" t="n">
+        <v>41.71923828125</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>12</v>
+      </c>
+      <c r="G59" t="n">
+        <v>16</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.9209224986972407</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>483.6304931640625</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1056.983215332031</v>
+      </c>
+      <c r="C60" t="n">
+        <v>88.86041259765625</v>
+      </c>
+      <c r="D60" t="n">
+        <v>57.226318359375</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>14</v>
+      </c>
+      <c r="G60" t="n">
+        <v>19</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9784661423642884</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>193.83447265625</v>
+      </c>
+      <c r="B61" t="n">
+        <v>764.7708740234375</v>
+      </c>
+      <c r="C61" t="n">
+        <v>44.7437744140625</v>
+      </c>
+      <c r="D61" t="n">
+        <v>62.04229736328125</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>14</v>
+      </c>
+      <c r="G61" t="n">
+        <v>19</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9584593218339463</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>753.9609375</v>
+      </c>
+      <c r="B62" t="n">
+        <v>666.0921630859375</v>
+      </c>
+      <c r="C62" t="n">
+        <v>34.89825439453125</v>
+      </c>
+      <c r="D62" t="n">
+        <v>75.45880126953125</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>14</v>
+      </c>
+      <c r="G62" t="n">
+        <v>19</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.9822384417664237</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>79.14208984375</v>
+      </c>
+      <c r="B63" t="n">
+        <v>749.6656494140625</v>
+      </c>
+      <c r="C63" t="n">
+        <v>42.2784423828125</v>
+      </c>
+      <c r="D63" t="n">
+        <v>45.9873046875</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>13</v>
+      </c>
+      <c r="G63" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.9702922094936743</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>377.28564453125</v>
+      </c>
+      <c r="B64" t="n">
+        <v>726.9067993164062</v>
+      </c>
+      <c r="C64" t="n">
+        <v>46.62799072265625</v>
+      </c>
+      <c r="D64" t="n">
+        <v>36.8720703125</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>14</v>
+      </c>
+      <c r="G64" t="n">
+        <v>19</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.9750231136320278</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>117.375</v>
+      </c>
+      <c r="B65" t="n">
+        <v>974.125</v>
+      </c>
+      <c r="C65" t="n">
+        <v>62.921875</v>
+      </c>
+      <c r="D65" t="n">
+        <v>44.125</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.1096395518436252</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1916.100402832031</v>
+      </c>
+      <c r="B66" t="n">
+        <v>737.795654296875</v>
+      </c>
+      <c r="C66" t="n">
+        <v>40.20068359375</v>
+      </c>
+      <c r="D66" t="n">
+        <v>68.400390625</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>14</v>
+      </c>
+      <c r="G66" t="n">
+        <v>19</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.9724898016915159</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>572.9531860351562</v>
+      </c>
+      <c r="B67" t="n">
+        <v>731.13525390625</v>
+      </c>
+      <c r="C67" t="n">
+        <v>54.849609375</v>
+      </c>
+      <c r="D67" t="n">
+        <v>45.6943359375</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>14</v>
+      </c>
+      <c r="G67" t="n">
+        <v>19</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.056491462088907</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>413.4076538085938</v>
+      </c>
+      <c r="B68" t="n">
+        <v>712.1390991210938</v>
+      </c>
+      <c r="C68" t="n">
+        <v>68.7506103515625</v>
+      </c>
+      <c r="D68" t="n">
+        <v>51.00323486328125</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>14</v>
+      </c>
+      <c r="G68" t="n">
+        <v>19</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9402900927007103</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1977.796875</v>
+      </c>
+      <c r="B69" t="n">
+        <v>675.8515625</v>
+      </c>
+      <c r="C69" t="n">
+        <v>37.3359375</v>
+      </c>
+      <c r="D69" t="n">
+        <v>51.765625</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7</v>
+      </c>
+      <c r="G69" t="n">
+        <v>9</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>535.0107421875</v>
+      </c>
+      <c r="B70" t="n">
+        <v>727.7529296875</v>
+      </c>
+      <c r="C70" t="n">
+        <v>55.24609375</v>
+      </c>
+      <c r="D70" t="n">
+        <v>44.892578125</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10</v>
+      </c>
+      <c r="G70" t="n">
+        <v>15</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9863707375634405</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1489</v>
+      </c>
+      <c r="B71" t="n">
+        <v>961</v>
+      </c>
+      <c r="C71" t="n">
+        <v>65</v>
+      </c>
+      <c r="D71" t="n">
+        <v>130</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2038.6875</v>
+      </c>
+      <c r="B72" t="n">
+        <v>679.625</v>
+      </c>
+      <c r="C72" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="D72" t="n">
+        <v>49.3125</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1766.0625</v>
+      </c>
+      <c r="B73" t="n">
+        <v>679.4375</v>
+      </c>
+      <c r="C73" t="n">
+        <v>37.703125</v>
+      </c>
+      <c r="D73" t="n">
+        <v>68.390625</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6</v>
+      </c>
+      <c r="G73" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.9469810024569698</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>806.90625</v>
+      </c>
+      <c r="B74" t="n">
+        <v>337.515625</v>
+      </c>
+      <c r="C74" t="n">
+        <v>22.546875</v>
+      </c>
+      <c r="D74" t="n">
+        <v>63.421875</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>6</v>
+      </c>
+      <c r="G74" t="n">
+        <v>11</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.9400487621681878</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>731</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1147</v>
+      </c>
+      <c r="C75" t="n">
+        <v>117</v>
+      </c>
+      <c r="D75" t="n">
+        <v>80</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>343.5625</v>
+      </c>
+      <c r="B76" t="n">
+        <v>721.375</v>
+      </c>
+      <c r="C76" t="n">
+        <v>49.625</v>
+      </c>
+      <c r="D76" t="n">
+        <v>39.875</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4</v>
+      </c>
+      <c r="G76" t="n">
+        <v>9</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9332478710740775</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>692.25</v>
+      </c>
+      <c r="B77" t="n">
+        <v>354.0625</v>
+      </c>
+      <c r="C77" t="n">
+        <v>25.0625</v>
+      </c>
+      <c r="D77" t="n">
+        <v>38.875</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" t="n">
+        <v>9</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.9419824982093363</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>847</v>
+      </c>
+      <c r="B78" t="n">
+        <v>368</v>
+      </c>
+      <c r="C78" t="n">
+        <v>27</v>
+      </c>
+      <c r="D78" t="n">
+        <v>52</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>683.5</v>
+      </c>
+      <c r="B79" t="n">
+        <v>317</v>
+      </c>
+      <c r="C79" t="n">
+        <v>26</v>
+      </c>
+      <c r="D79" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2</v>
+      </c>
+      <c r="G79" t="n">
+        <v>6</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.9702970297029703</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>880.125</v>
+      </c>
+      <c r="B80" t="n">
+        <v>314.625</v>
+      </c>
+      <c r="C80" t="n">
+        <v>25</v>
+      </c>
+      <c r="D80" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3</v>
+      </c>
+      <c r="G80" t="n">
+        <v>8</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.8955018660381064</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>943</v>
+      </c>
+      <c r="B81" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="C81" t="n">
+        <v>23</v>
+      </c>
+      <c r="D81" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>6</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.8941176470588236</v>
       </c>
     </row>
   </sheetData>
